--- a/biology/Zoologie/Hylarana_celebensis/Hylarana_celebensis.xlsx
+++ b/biology/Zoologie/Hylarana_celebensis/Hylarana_celebensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">"Hylarana" celebensis est une espèce d'amphibiens de la famille des Ranidae dont la position taxonomique est incertaine (incertae sedis)[1].
-Depuis la révision du genre Hylarana par Oliver, Prendini, Kraus et Raxworthy en 2015[2], cette espèce a été exclue de ce genre sans qu'il soit possible de la placée dans un autre de manière certaine. Elle est rapprochée de Hydrophylax ou Indosylvirana.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">"Hylarana" celebensis est une espèce d'amphibiens de la famille des Ranidae dont la position taxonomique est incertaine (incertae sedis).
+Depuis la révision du genre Hylarana par Oliver, Prendini, Kraus et Raxworthy en 2015, cette espèce a été exclue de ce genre sans qu'il soit possible de la placée dans un autre de manière certaine. Elle est rapprochée de Hydrophylax ou Indosylvirana.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Sulawesi en Indonésie. Elle se rencontre en dessous de 700 m d'altitude[1],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Sulawesi en Indonésie. Elle se rencontre en dessous de 700 m d'altitude,.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de celeb[es] et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte les Célèbes, l'ancien nom de Sulawesi.
 </t>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Peters, 1872 : Mittheilung über einige von Hrn. Dr. A.B. Meyer bei Gorontalo und auf den Togian-Inseln gesammelte Amphibien. Monatsberichte der Königlichen Preussischen Akademie der Wissenschaften zu Berlin, vol. 1872, p. 581-585 (texte intégral).</t>
         </is>
